--- a/заказы/статистика филиалы/2023/10,23/26,10,23 ЗПФ/дв 26,10,23 мррсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/26,10,23 ЗПФ/дв 26,10,23 мррсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\26,10,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\26,10,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004F6E0F-98E6-4EC9-97D2-3B166E2DA952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0094C07E-EE80-4198-9F74-0597DDC4B385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,10 +251,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -3247,8 +3251,8 @@
   </sheetPr>
   <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
